--- a/indinfo2020.xlsx
+++ b/indinfo2020.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="93">
   <si>
     <t xml:space="preserve">序号</t>
   </si>
@@ -62,7 +62,7 @@
     <r>
       <rPr>
         <sz val="16"/>
-        <rFont val="Arial"/>
+        <rFont val="PingFang SC"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
@@ -130,10 +130,89 @@
     <t xml:space="preserve">万元收入能耗占比▲</t>
   </si>
   <si>
-    <t xml:space="preserve">医疗收入中来自医保基金的比例(包括门诊、 住院收入中来自医保基金的比例)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医疗服务收入(不含药品、耗材、检查检验收 入)占医疗收入比例▲</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">医疗收入中来自医保基金的比例</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">包括门诊、 住院收入中来自医保基金的比例</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">医疗服务收入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">不含药品、耗材、检查检验收 入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">占医疗收入比例▲</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">医疗收入增幅▲</t>
@@ -169,9 +248,6 @@
     <t xml:space="preserve">医务人员满意度▲</t>
   </si>
   <si>
-    <t xml:space="preserve">相关指标</t>
-  </si>
-  <si>
     <t xml:space="preserve">指标属性</t>
   </si>
   <si>
@@ -181,7 +257,42 @@
     <t xml:space="preserve">定量</t>
   </si>
   <si>
-    <t xml:space="preserve">下转患者人次数(门急诊、住院)</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">下转患者人次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">门急诊、住院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">日间手术占择期手术比例</t>
@@ -195,7 +306,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="16"/>
+        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="0"/>
         <charset val="1"/>
@@ -205,72 +316,116 @@
     <r>
       <rPr>
         <sz val="16"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">类切口手术部位感染率▲</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">单病种质量控制▲</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大型医用设备检查阳性率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大型医用设备维修保养及质量控制管理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">定性</t>
+  </si>
+  <si>
+    <t xml:space="preserve">通过国家室间质量评价的临床检验项目数▲</t>
+  </si>
+  <si>
+    <t xml:space="preserve">优质护理服务病房覆盖率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点评处方占处方总数的比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门诊患者基本药物处方占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">住院患者基本药物使用率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">基本药物采购品种数占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">国家组织药品集中采购中标药品使用比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门诊患者平均预约诊疗率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门诊患者预约后平均等待时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每名执业医师日均住院工作负担</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每百张病床药师人数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门诊收入占医疗收入比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门诊收入中来自医保基金的比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">住院收入占医疗收入比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">住院收入中来自医保基金的比例</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">医疗服务收入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">类切口手术部位感染率▲</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">单病种质量控制▲</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大型医用设备检查阳性率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大型医用设备维修保养及质量控制管理</t>
-  </si>
-  <si>
-    <t xml:space="preserve">定性</t>
-  </si>
-  <si>
-    <t xml:space="preserve">通过国家室间质量评价的临床检验项目数▲</t>
-  </si>
-  <si>
-    <t xml:space="preserve">优质护理服务病房覆盖率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">点评处方占处方总数的比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊患者基本药物处方占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">住院患者基本药物使用率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">基本药物采购品种数占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">国家组织药品集中采购中标药品使用比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊患者平均预约诊疗率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊患者预约后平均等待时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每名执业医师日均住院工作负担</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每百张病床药师人数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊收入占医疗收入比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊收入中来自医保基金的比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">住院收入占医疗收入比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">住院收入中来自医保基金的比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医疗服务收入(不含药品、耗材、检查检验收入)占 医疗收入比例▲</t>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">不含药品、耗材、检查检验收入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">占 医疗收入比例▲</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">辅助用药收入占比</t>
@@ -312,7 +467,51 @@
     <t xml:space="preserve">卫生技术人员职称结构</t>
   </si>
   <si>
-    <t xml:space="preserve">医院接受其他医院(尤其是对口支援医院、医联体内 医院)进修并返回原医院独立工作人数占比</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">医院接受其他医院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">尤其是对口支援医院、医联体内 医院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">进修并返回原医院独立工作人数占比</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">医院住院医师首次参加医师资格考试通过率▲</t>
@@ -336,7 +535,24 @@
     <t xml:space="preserve">住院患者满意度▲</t>
   </si>
   <si>
-    <t xml:space="preserve">增1</t>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">增</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -347,7 +563,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Helvetica Neue"/>
@@ -376,6 +592,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Arial"/>
@@ -384,7 +606,7 @@
     </font>
     <font>
       <sz val="16"/>
-      <name val="Arial"/>
+      <name val="PingFang SC"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -392,6 +614,18 @@
       <sz val="16"/>
       <name val="Times New Roman"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -459,11 +693,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -475,7 +709,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -484,15 +718,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -515,13 +749,13 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="72.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="72.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="42.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.92"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="1" width="11.52"/>
@@ -1036,34 +1270,34 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
-      <selection pane="bottomRight" activeCell="A58" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="87.43"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="7" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1071,27 +1305,27 @@
       <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1099,13 +1333,13 @@
       <c r="A4" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="B4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1113,13 +1347,13 @@
       <c r="A5" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1127,13 +1361,13 @@
       <c r="A6" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1141,13 +1375,13 @@
       <c r="A7" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="B7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1155,13 +1389,13 @@
       <c r="A8" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="B8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1169,27 +1403,27 @@
       <c r="A9" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="B10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1197,672 +1431,661 @@
       <c r="A11" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8" t="s">
-        <v>10</v>
+      <c r="C12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>18</v>
+      <c r="C14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>10</v>
+      <c r="C19" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="8" t="s">
+      <c r="C20" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="8" t="s">
+      <c r="C21" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="8" t="s">
+      <c r="C22" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="8" t="s">
+      <c r="C23" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>6</v>
+      <c r="C24" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>6</v>
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="8" t="s">
+      <c r="C27" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="8" t="s">
+      <c r="C28" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="8" t="s">
+      <c r="C29" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="8" t="s">
+      <c r="C30" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>18</v>
+      <c r="C32" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>6</v>
+      <c r="C33" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>18</v>
+      <c r="C34" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>6</v>
+      <c r="C35" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>10</v>
+      <c r="C36" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>18</v>
+      <c r="C39" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D40" s="8" t="s">
+      <c r="C40" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41" s="8" t="s">
+      <c r="C41" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="8" t="s">
+      <c r="C42" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>10</v>
+      <c r="C43" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>82</v>
+      <c r="C45" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>18</v>
+        <v>45</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C47" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>18</v>
+        <v>84</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C49" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D49" s="8" t="s">
+      <c r="C49" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50" s="8" t="s">
+      <c r="C50" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C51" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D51" s="8" t="s">
+      <c r="C51" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D52" s="8" t="s">
+      <c r="C52" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C53" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>6</v>
+      <c r="C53" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C54" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>18</v>
+      <c r="C54" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C55" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D55" s="8" t="s">
+      <c r="C55" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C56" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B58" s="2" t="s">
+      <c r="B57" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C58" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D58" s="8" t="s">
+      <c r="C57" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D57" s="9" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C11:C12"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.511805555555555" footer="0.25"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/indinfo2020.xlsx
+++ b/indinfo2020.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\qc\hqcoffee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276EF8FF-C6FE-4D16-9D6B-311287714A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73B62E5F-3316-4AD0-81E3-5DFA693074C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="二级综合" sheetId="1" r:id="rId1"/>
     <sheet name="三级综合" sheetId="2" r:id="rId2"/>
+    <sheet name="三级中医" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="131">
   <si>
     <t>序号</t>
   </si>
@@ -305,13 +306,134 @@
   </si>
   <si>
     <t>医疗服务收入(不含药品、耗材、检查检验收 入)占医疗收入比例▲</t>
+  </si>
+  <si>
+    <t>二级维度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级维度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门诊中药处方比例▲</t>
+  </si>
+  <si>
+    <t>门诊散装中药饮片和小包装中药饮片处方比例▲</t>
+  </si>
+  <si>
+    <t>门诊患者中药饮片使用率▲</t>
+  </si>
+  <si>
+    <t>出院患者中药饮片使用率▲</t>
+  </si>
+  <si>
+    <t>门诊患者使用中医非药物疗法比例▲</t>
+  </si>
+  <si>
+    <t>出院患者使用中医非药物疗法比例▲</t>
+  </si>
+  <si>
+    <t>以中医为主治疗的出院患者比例▲</t>
+  </si>
+  <si>
+    <t>住院手术患者围手术期中医治疗比例</t>
+  </si>
+  <si>
+    <t>下转患者人次数（门急诊、住院）</t>
+  </si>
+  <si>
+    <t>Ⅰ类切口手术部位感染率▲</t>
+  </si>
+  <si>
+    <t>理法方药使用一致的出院患者比例</t>
+  </si>
+  <si>
+    <t>点评中药处方占中药处方总数的比例</t>
+  </si>
+  <si>
+    <t>逐步提高↑8</t>
+  </si>
+  <si>
+    <t>抗菌药物使用强度（DDDs）▲</t>
+  </si>
+  <si>
+    <t>每名执业医师日均门诊工作负担</t>
+  </si>
+  <si>
+    <t>医疗服务收入（不含药品、耗材、检查检验收入）占医疗收入比例▲</t>
+  </si>
+  <si>
+    <t>重点监控化学药品和生物制品收入占比</t>
+  </si>
+  <si>
+    <t>中药收入占药品收入比例▲</t>
+  </si>
+  <si>
+    <t>中药饮片收入占药品收入比例▲</t>
+  </si>
+  <si>
+    <t>医疗机构中药制剂收入占药品收入比例▲</t>
+  </si>
+  <si>
+    <t>门诊中医医疗服务项目收入占门诊医疗收入比例▲</t>
+  </si>
+  <si>
+    <t>住院中医医疗服务项目收入占住院医疗收入比例▲</t>
+  </si>
+  <si>
+    <t>逐步提高↑9</t>
+  </si>
+  <si>
+    <t>中医类别执业医师（含执业助理医师）占执业医师总数比例▲</t>
+  </si>
+  <si>
+    <t>在岗的麻醉、儿科、重症、病理医师占比</t>
+  </si>
+  <si>
+    <t>护理人员系统接受中医药知识和技能培训比例</t>
+  </si>
+  <si>
+    <t>医院接受其他医院（尤其是对口支援医院、医联体内医院）进修并返回原医院独立工作人数占比</t>
+  </si>
+  <si>
+    <t>逐步提高↑10</t>
+  </si>
+  <si>
+    <t>每百名卫生技术人员中医药科研项目经费▲</t>
+  </si>
+  <si>
+    <t>每百名卫生技术人员重点学科、重点专科经费投入</t>
+  </si>
+  <si>
+    <t>每百名卫生技术人员中医药科研成果转化金额</t>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标导向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Helvetica Neue"/>
@@ -334,6 +456,11 @@
       <sz val="10"/>
       <name val="Microsoft YaHei Light"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helvetica Neue"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -380,7 +507,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -407,6 +534,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -722,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ29"/>
+  <dimension ref="A1:AMK29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="14.5"/>
@@ -733,12 +863,13 @@
     <col min="1" max="1" width="5.59765625" style="6" customWidth="1"/>
     <col min="2" max="2" width="72.69921875" style="6" customWidth="1"/>
     <col min="3" max="3" width="42.5" style="6" customWidth="1"/>
-    <col min="4" max="4" width="10.8984375" style="6" customWidth="1"/>
-    <col min="5" max="1024" width="11.5" style="6"/>
-    <col min="1025" max="16384" width="11.5" style="4"/>
+    <col min="4" max="4" width="9.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.8984375" style="6" customWidth="1"/>
+    <col min="6" max="1025" width="11.5" style="6"/>
+    <col min="1026" max="16384" width="11.5" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -749,13 +880,20 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="F1" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -765,14 +903,15 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="8"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -782,14 +921,15 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="8"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -799,14 +939,15 @@
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="8"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -816,14 +957,15 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -833,14 +975,15 @@
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -850,14 +993,15 @@
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -867,14 +1011,15 @@
       <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="8"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -884,14 +1029,15 @@
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="8"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -901,14 +1047,15 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="8"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -918,14 +1065,15 @@
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="8"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -935,14 +1083,15 @@
       <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="8"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -952,14 +1101,15 @@
       <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="8"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -969,14 +1119,15 @@
       <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="8"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -986,14 +1137,15 @@
       <c r="C15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="8"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1003,14 +1155,15 @@
       <c r="C16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="8"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1020,14 +1173,15 @@
       <c r="C17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="8"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1037,14 +1191,15 @@
       <c r="C18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1054,14 +1209,15 @@
       <c r="C19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="8"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1071,14 +1227,15 @@
       <c r="C20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="8"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1088,14 +1245,15 @@
       <c r="C21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="8"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1105,14 +1263,15 @@
       <c r="C22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -1122,14 +1281,15 @@
       <c r="C23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -1139,14 +1299,15 @@
       <c r="C24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="8"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -1156,14 +1317,15 @@
       <c r="C25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="8"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -1173,14 +1335,15 @@
       <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="8"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -1190,14 +1353,15 @@
       <c r="C27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="8"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -1207,14 +1371,15 @@
       <c r="C28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="8"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -1224,12 +1389,13 @@
       <c r="C29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="8"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1246,818 +1412,884 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMJ57"/>
+  <dimension ref="A1:AMK57"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.796875" style="6" customWidth="1"/>
     <col min="2" max="2" width="87.3984375" style="6" customWidth="1"/>
-    <col min="3" max="1024" width="11.5" style="3"/>
-    <col min="1025" max="16384" width="11.5" style="4"/>
+    <col min="3" max="3" width="9.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="1025" width="11.5" style="3"/>
+    <col min="1026" max="16384" width="11.5" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="F1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:7">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1">
+    <row r="11" spans="1:7" ht="15" customHeight="1">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:7">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1"/>
+      <c r="D13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:7">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C16" s="1"/>
       <c r="D16" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C18" s="1"/>
       <c r="D18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C19" s="1"/>
       <c r="D19" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C21" s="1"/>
       <c r="D21" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C22" s="1"/>
       <c r="D22" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C23" s="1"/>
       <c r="D23" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C24" s="1"/>
       <c r="D24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5">
       <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1"/>
+      <c r="D25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C26" s="1"/>
       <c r="D26" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="5">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C27" s="1"/>
       <c r="D27" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="5">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C28" s="1"/>
       <c r="D28" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="5">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C29" s="1"/>
       <c r="D29" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="5">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C30" s="1"/>
       <c r="D30" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="5">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C31" s="1"/>
       <c r="D31" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="5">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C32" s="1"/>
       <c r="D32" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="5">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C33" s="1"/>
       <c r="D33" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="5">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C34" s="1"/>
       <c r="D34" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="5">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C35" s="1"/>
       <c r="D35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:5">
       <c r="A36" s="5">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C36" s="1"/>
       <c r="D36" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="5">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C37" s="1"/>
       <c r="D37" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="5">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C38" s="1"/>
       <c r="D38" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="5">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C39" s="1"/>
       <c r="D39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:5">
       <c r="A40" s="5">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C40" s="1"/>
       <c r="D40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:5">
       <c r="A41" s="5">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C41" s="1"/>
       <c r="D41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:5">
       <c r="A42" s="5">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C42" s="1"/>
       <c r="D42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:5">
       <c r="A43" s="5">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="1"/>
+      <c r="D43" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:5">
       <c r="A44" s="5">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="1"/>
+      <c r="D44" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:5">
       <c r="A45" s="5">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C45" s="1"/>
       <c r="D45" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="5">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C46" s="1"/>
       <c r="D46" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="5">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C47" s="1"/>
       <c r="D47" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="5">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C48" s="1"/>
       <c r="D48" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="5">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C49" s="1"/>
       <c r="D49" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="5">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C50" s="1"/>
       <c r="D50" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="5">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C51" s="1"/>
       <c r="D51" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="5">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C52" s="1"/>
       <c r="D52" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="5">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="1"/>
+      <c r="D53" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="5">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C54" s="1"/>
       <c r="D54" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="5">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C55" s="1"/>
       <c r="D55" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="5">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C56" s="1"/>
       <c r="D56" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C57" s="1"/>
       <c r="D57" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2069,4 +2301,977 @@
     <oddFooter>&amp;C&amp;12&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D1D808B-D912-4F89-8657-9A2054BB59C2}">
+  <dimension ref="A1:D68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" t="s">
+        <v>42</v>
+      </c>
+      <c r="D52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" t="s">
+        <v>42</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" t="s">
+        <v>42</v>
+      </c>
+      <c r="D58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" t="s">
+        <v>42</v>
+      </c>
+      <c r="D59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" t="s">
+        <v>42</v>
+      </c>
+      <c r="D60" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" t="s">
+        <v>42</v>
+      </c>
+      <c r="D61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" t="s">
+        <v>42</v>
+      </c>
+      <c r="D62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" t="s">
+        <v>42</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" t="s">
+        <v>42</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66" t="s">
+        <v>42</v>
+      </c>
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>39</v>
+      </c>
+      <c r="C67" t="s">
+        <v>42</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>90</v>
+      </c>
+      <c r="B68" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" t="s">
+        <v>42</v>
+      </c>
+      <c r="D68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>